--- a/runs/overview_bats.xlsx
+++ b/runs/overview_bats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD12039B-AE90-4913-94F0-D85472F69164}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C8B6CE3-DB09-43E3-AB0D-B824948BF33E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Bat file</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>val_per1_8, val_per1_10, val_per1_12, val_per1_14</t>
+  </si>
+  <si>
+    <t>Succes</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -166,9 +169,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -206,6 +206,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,21 +475,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -512,8 +516,11 @@
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -523,11 +530,14 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -537,11 +547,14 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -554,8 +567,11 @@
       <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -565,12 +581,15 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:C1048576 D2:D7 C1 E7 E4:E5">
+  <conditionalFormatting sqref="C1 D2:D7 E4:E5 E7 C8:C1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",C1)))</formula>
     </cfRule>

--- a/runs/overview_bats.xlsx
+++ b/runs/overview_bats.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C8B6CE3-DB09-43E3-AB0D-B824948BF33E}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795D2750-8B1D-4F07-B480-6582B916027D}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Bat file</t>
   </si>
@@ -51,9 +62,6 @@
     <t>runs5.bat</t>
   </si>
   <si>
-    <t>val_per1_3, val_per1_4</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -75,19 +83,10 @@
     <t>Active?</t>
   </si>
   <si>
-    <t>val_per2_2, val_per3_2</t>
-  </si>
-  <si>
-    <t>val_per1_7, val_per1_9</t>
-  </si>
-  <si>
-    <t>val_per1_11, val_per_13</t>
-  </si>
-  <si>
-    <t>val_per1_8, val_per1_10, val_per1_12, val_per1_14</t>
-  </si>
-  <si>
-    <t>Succes</t>
+    <t>…</t>
+  </si>
+  <si>
+    <t>--&gt; ran on wcp node instead</t>
   </si>
 </sst>
 </file>
@@ -160,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -171,6 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +478,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,6 +487,7 @@
     <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
@@ -494,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -508,16 +509,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
@@ -525,16 +526,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
@@ -542,16 +540,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -559,37 +554,31 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 D2:D7 E4:E5 E7 C8:C1048576">
+  <conditionalFormatting sqref="C1 D2:D7 C8:C1048576 E3:E7">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",C1)))</formula>
     </cfRule>

--- a/runs/overview_bats.xlsx
+++ b/runs/overview_bats.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795D2750-8B1D-4F07-B480-6582B916027D}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93C1CADA-7099-4EA2-91EE-5B6656E83157}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Bat file</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Run ID</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>runs1.bat</t>
   </si>
   <si>
@@ -65,9 +63,6 @@
     <t>CPU</t>
   </si>
   <si>
-    <t>v-wcp5008</t>
-  </si>
-  <si>
     <t>v-wcp4689</t>
   </si>
   <si>
@@ -83,10 +78,73 @@
     <t>Active?</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>--&gt; ran on wcp node instead</t>
+  </si>
+  <si>
+    <t>v-wcp5008 / Vmware</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Runs that still need doing:</t>
+  </si>
+  <si>
+    <t>Validation of best settings</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>I will check all run results tomorrow before making a choice on whether to use the 'fast' or 'best' settings for the senstivity analysis, though I'm leaning towards the former.</t>
+  </si>
+  <si>
+    <t>i still need:</t>
+  </si>
+  <si>
+    <t>Get ready for review</t>
+  </si>
+  <si>
+    <t>Implement feedback</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Remote comments / unused data links</t>
+  </si>
+  <si>
+    <t>Other Tasks</t>
+  </si>
+  <si>
+    <t>Get notebooks working on hub</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Misc?</t>
+  </si>
+  <si>
+    <t>Attend meetings</t>
+  </si>
+  <si>
+    <t>Total pessimistics (*1.2)</t>
+  </si>
+  <si>
+    <t>Total (neutral)</t>
+  </si>
+  <si>
+    <t>runs2.bat, runs4.bat</t>
   </si>
 </sst>
 </file>
@@ -118,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -155,11 +213,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -171,6 +269,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,110 +585,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="5" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 D2:D7 C8:C1048576 E3:E7">
+  <conditionalFormatting sqref="C1 D2 C8:C12 C14:C1048576 D4:D8 D3:F3 E4:E5">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",C1)))</formula>
     </cfRule>
@@ -588,4 +719,198 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B964FE6-66ED-4AF2-9CF6-A4CC3DF089F9}">
+  <dimension ref="B3:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <f>SUM(C4:E4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F8" si="0">SUM(C5:E5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10">
+        <f>SUM(C11:E11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="1">SUM(C12:E12)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="12">
+        <f>SUM(F4:F13)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <f>F14*1.2</f>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/runs/overview_bats.xlsx
+++ b/runs/overview_bats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93C1CADA-7099-4EA2-91EE-5B6656E83157}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57D346B9-FBE7-42B9-B6EC-CDCBF25E7BE1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="770" windowWidth="13150" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Bat file</t>
   </si>
@@ -84,9 +84,6 @@
     <t>v-wcp5008 / Vmware</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Runs that still need doing:</t>
   </si>
   <si>
@@ -144,7 +141,7 @@
     <t>Total (neutral)</t>
   </si>
   <si>
-    <t>runs2.bat, runs4.bat</t>
+    <t>collect_erosion.bat</t>
   </si>
 </sst>
 </file>
@@ -257,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -269,7 +266,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -588,7 +584,7 @@
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,13 +618,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>13</v>
@@ -642,10 +635,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
@@ -656,10 +646,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
@@ -670,13 +657,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -687,29 +671,32 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 D2 C8:C12 C14:C1048576 D4:D8 D3:F3 E4:E5">
+  <conditionalFormatting sqref="C1 E3:F3 E4:E5 C8:C12 C14:C1048576 D2:D8">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",C1)))</formula>
     </cfRule>
@@ -738,28 +725,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>30</v>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -767,7 +754,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f>SUM(C4:E4)</f>
         <v>3</v>
       </c>
@@ -776,7 +763,7 @@
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
       <c r="D5">
@@ -785,7 +772,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F8" si="0">SUM(C5:E5)</f>
         <v>11</v>
       </c>
@@ -794,8 +781,8 @@
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -803,7 +790,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -812,8 +799,8 @@
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -821,7 +808,7 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -830,8 +817,8 @@
       <c r="B8">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -839,71 +826,71 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9">
         <v>4</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f>SUM(C11:E11)</f>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="10">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f t="shared" ref="F12:F13" si="1">SUM(C12:E12)</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="10">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="11">
         <f>SUM(F4:F13)</f>
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E15" s="14" t="s">
-        <v>33</v>
+      <c r="E15" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="F15">
         <f>F14*1.2</f>

--- a/runs/overview_bats.xlsx
+++ b/runs/overview_bats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57D346B9-FBE7-42B9-B6EC-CDCBF25E7BE1}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="11_F25DC773A252ABDACC104865595B4C345BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EAFC36B-6059-477B-8A9E-34E0662827FF}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="770" windowWidth="13150" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Bat file</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Total (neutral)</t>
-  </si>
-  <si>
-    <t>collect_erosion.bat</t>
   </si>
 </sst>
 </file>
@@ -581,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J12"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +590,7 @@
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
@@ -673,9 +670,6 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -695,8 +689,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <f>84/4</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <f>(18 + 2) / 4</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1 E3:F3 E4:E5 C8:C12 C14:C1048576 D2:D8">
+  <conditionalFormatting sqref="C1 D2:D8 E3:F3 E4:E5 C8:C12 C14:C1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",C1)))</formula>
     </cfRule>
